--- a/Simulation_Code_1/simulationResult.xlsx
+++ b/Simulation_Code_1/simulationResult.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan.c.larson\Documents\GitHub\SMART_UAV_disaster_algorithm_1\Simulation_Code_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56163091-1997-41F1-81BF-E934A6326746}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12840102-3654-4423-A025-961A33B99A18}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7848" activeTab="2" xr2:uid="{7F897D7E-C005-48EA-9E66-9AA0E7521362}"/>
+    <workbookView xWindow="3816" yWindow="324" windowWidth="9168" windowHeight="8964" activeTab="2" xr2:uid="{7F897D7E-C005-48EA-9E66-9AA0E7521362}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
